--- a/modeling/results/feature_imp_attr_text.xlsx
+++ b/modeling/results/feature_imp_attr_text.xlsx
@@ -22,243 +22,288 @@
     <t>Importance</t>
   </si>
   <si>
+    <t>declarações</t>
+  </si>
+  <si>
     <t>senhor</t>
   </si>
   <si>
+    <t>deferiu liminar</t>
+  </si>
+  <si>
+    <t>justiça quinta</t>
+  </si>
+  <si>
+    <t>assessora</t>
+  </si>
+  <si>
+    <t>liminarmente relator</t>
+  </si>
+  <si>
+    <t>crianças</t>
+  </si>
+  <si>
+    <t>eis</t>
+  </si>
+  <si>
+    <t>defesa então</t>
+  </si>
+  <si>
+    <t>liminar indeferida</t>
+  </si>
+  <si>
+    <t>incursos</t>
+  </si>
+  <si>
+    <t>resumiu apreciou</t>
+  </si>
+  <si>
     <t>operação</t>
   </si>
   <si>
+    <t>sob sigilo</t>
+  </si>
+  <si>
     <t>livramento condicional</t>
   </si>
   <si>
-    <t>deferiu liminar</t>
-  </si>
-  <si>
-    <t>assessora</t>
-  </si>
-  <si>
-    <t>crianças</t>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>indefiro</t>
+  </si>
+  <si>
+    <t>informações prestadas</t>
+  </si>
+  <si>
+    <t>homicídio qualificado</t>
   </si>
   <si>
     <t>outras pessoas</t>
   </si>
   <si>
-    <t>eis</t>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>manifesta</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>liminar fim</t>
+  </si>
+  <si>
+    <t>prestou seguintes</t>
+  </si>
+  <si>
+    <t>homicídio triplamente</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>turma partir</t>
+  </si>
+  <si>
+    <t>informações solicitadas</t>
+  </si>
+  <si>
+    <t>legitimidade</t>
+  </si>
+  <si>
+    <t>lícita</t>
+  </si>
+  <si>
+    <t>manifesta ilegalidade</t>
+  </si>
+  <si>
+    <t>ordem parcialmente</t>
+  </si>
+  <si>
+    <t>opina admissão</t>
+  </si>
+  <si>
+    <t>ministerial</t>
+  </si>
+  <si>
+    <t>produzidas</t>
+  </si>
+  <si>
+    <t>república cláudia</t>
+  </si>
+  <si>
+    <t>federal opinou</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>assuntos INVESTIGAÇÃO PENAL</t>
+  </si>
+  <si>
+    <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
+  </si>
+  <si>
+    <t>assuntos LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>subsidiariamente</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>benefício</t>
+  </si>
+  <si>
+    <t>cautelar prisão</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>contra paciente</t>
   </si>
   <si>
     <t>reexame</t>
   </si>
   <si>
+    <t>nome</t>
+  </si>
+  <si>
     <t>decisões</t>
   </si>
   <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>ministerial</t>
-  </si>
-  <si>
-    <t>declarações</t>
-  </si>
-  <si>
-    <t>incursos</t>
-  </si>
-  <si>
-    <t>liminarmente relator</t>
-  </si>
-  <si>
-    <t>liminar indeferida</t>
-  </si>
-  <si>
-    <t>defesa então</t>
-  </si>
-  <si>
-    <t>resumiu apreciou</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>justiça quinta</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>sob</t>
-  </si>
-  <si>
-    <t>sob sigilo</t>
-  </si>
-  <si>
-    <t>informações solicitadas</t>
-  </si>
-  <si>
-    <t>homicídio qualificado</t>
-  </si>
-  <si>
-    <t>informações prestadas</t>
-  </si>
-  <si>
-    <t>legitimidade</t>
-  </si>
-  <si>
-    <t>lícita</t>
-  </si>
-  <si>
-    <t>liminar fim</t>
+    <t>decretou</t>
+  </si>
+  <si>
+    <t>esclarece</t>
+  </si>
+  <si>
+    <t>resumiu</t>
+  </si>
+  <si>
+    <t>tratamento</t>
+  </si>
+  <si>
+    <t>relatório</t>
+  </si>
+  <si>
+    <t>princípio culpabilidade</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>suspeição</t>
+  </si>
+  <si>
+    <t>stj</t>
+  </si>
+  <si>
+    <t>pertence</t>
+  </si>
+  <si>
+    <t>preventiva fundamentação</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>réus</t>
+  </si>
+  <si>
+    <t>presente writ</t>
+  </si>
+  <si>
+    <t>poderia</t>
+  </si>
+  <si>
+    <t>paulo denegou</t>
   </si>
   <si>
     <t>assuntos DE TRÁFICO ILÍCITO E USO INDEVIDO DE DROGAS</t>
   </si>
   <si>
-    <t>manifesta</t>
-  </si>
-  <si>
-    <t>manifesta ilegalidade</t>
+    <t>mero</t>
   </si>
   <si>
     <t>mencionada</t>
   </si>
   <si>
-    <t>opina admissão</t>
-  </si>
-  <si>
-    <t>ordem parcialmente</t>
-  </si>
-  <si>
-    <t>prestou seguintes</t>
-  </si>
-  <si>
-    <t>relatório</t>
-  </si>
-  <si>
-    <t>república cláudia</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>sistema</t>
-  </si>
-  <si>
-    <t>stj</t>
-  </si>
-  <si>
-    <t>subsidiariamente</t>
-  </si>
-  <si>
-    <t>tratamento</t>
-  </si>
-  <si>
-    <t>indefiro</t>
-  </si>
-  <si>
-    <t>turma partir</t>
+    <t>assuntos INDEFERIMENTO</t>
+  </si>
+  <si>
+    <t>antonio</t>
+  </si>
+  <si>
+    <t>art iv</t>
+  </si>
+  <si>
+    <t>art ix</t>
+  </si>
+  <si>
+    <t>assim ementado</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>aurélio assessora</t>
+  </si>
+  <si>
+    <t>cautelares</t>
+  </si>
+  <si>
+    <t>constituição</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>deferiu medida</t>
+  </si>
+  <si>
+    <t>defesa</t>
+  </si>
+  <si>
+    <t>delito tráfico</t>
+  </si>
+  <si>
+    <t>embargos declaratórios</t>
+  </si>
+  <si>
+    <t>encontrava</t>
+  </si>
+  <si>
+    <t>esgotamento</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>fatos delituosos</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>impetração formalizada</t>
   </si>
   <si>
     <t>importante</t>
   </si>
   <si>
-    <t>benefício</t>
-  </si>
-  <si>
-    <t>delito tráfico</t>
-  </si>
-  <si>
-    <t>decretou</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>esclarece</t>
-  </si>
-  <si>
-    <t>esgotamento</t>
-  </si>
-  <si>
-    <t>assim ementado</t>
-  </si>
-  <si>
-    <t>fatos delituosos</t>
-  </si>
-  <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>cautelares</t>
-  </si>
-  <si>
-    <t>assuntos INVESTIGAÇÃO PENAL</t>
-  </si>
-  <si>
-    <t>impetração formalizada</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
-  </si>
-  <si>
-    <t>aurélio assessora</t>
-  </si>
-  <si>
-    <t>cautelar prisão</t>
-  </si>
-  <si>
-    <t>produzidas</t>
-  </si>
-  <si>
-    <t>princípio culpabilidade</t>
-  </si>
-  <si>
-    <t>resumiu</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>réus</t>
-  </si>
-  <si>
-    <t>art ix</t>
-  </si>
-  <si>
-    <t>art iv</t>
-  </si>
-  <si>
-    <t>antonio</t>
-  </si>
-  <si>
-    <t>assuntos LICITAÇÕES</t>
-  </si>
-  <si>
-    <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
-  </si>
-  <si>
-    <t>suspeição</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>preventiva fundamentação</t>
-  </si>
-  <si>
-    <t>paulo denegou</t>
-  </si>
-  <si>
-    <t>presente writ</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>indispensável custódia</t>
   </si>
   <si>
@@ -268,55 +313,10 @@
     <t>assuntos FIANÇA</t>
   </si>
   <si>
-    <t>homicídio triplamente</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
     <t>instrução processual</t>
   </si>
   <si>
     <t>iv combinado</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>federal opinou</t>
-  </si>
-  <si>
-    <t>encontrava</t>
-  </si>
-  <si>
-    <t>poderia</t>
-  </si>
-  <si>
-    <t>embargos declaratórios</t>
-  </si>
-  <si>
-    <t>defesa</t>
-  </si>
-  <si>
-    <t>deferiu medida</t>
-  </si>
-  <si>
-    <t>mero</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>contra paciente</t>
-  </si>
-  <si>
-    <t>constituição</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
-    <t>pertence</t>
   </si>
   <si>
     <t>informações determinei</t>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">

--- a/modeling/results/feature_imp_attr_text.xlsx
+++ b/modeling/results/feature_imp_attr_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>declarações</t>
-  </si>
-  <si>
-    <t>senhor</t>
-  </si>
-  <si>
-    <t>deferiu liminar</t>
-  </si>
-  <si>
-    <t>justiça quinta</t>
-  </si>
-  <si>
-    <t>assessora</t>
-  </si>
-  <si>
-    <t>liminarmente relator</t>
-  </si>
-  <si>
-    <t>crianças</t>
-  </si>
-  <si>
-    <t>eis</t>
-  </si>
-  <si>
-    <t>defesa então</t>
-  </si>
-  <si>
-    <t>liminar indeferida</t>
-  </si>
-  <si>
-    <t>incursos</t>
-  </si>
-  <si>
-    <t>resumiu apreciou</t>
-  </si>
-  <si>
-    <t>operação</t>
-  </si>
-  <si>
-    <t>sob sigilo</t>
-  </si>
-  <si>
-    <t>livramento condicional</t>
+    <t>aumento</t>
+  </si>
+  <si>
+    <t>deferi</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>inafiançabilidade</t>
+  </si>
+  <si>
+    <t>medidas cautelares</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>xliii constituição</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>submetida</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>xliii</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>assuntos FIANÇA</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>liberdade restritiva</t>
   </si>
   <si>
     <t>senha primeira</t>
   </si>
   <si>
-    <t>indefiro</t>
-  </si>
-  <si>
-    <t>informações prestadas</t>
-  </si>
-  <si>
-    <t>homicídio qualificado</t>
-  </si>
-  <si>
-    <t>outras pessoas</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>manifesta</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>liminar fim</t>
-  </si>
-  <si>
-    <t>prestou seguintes</t>
-  </si>
-  <si>
-    <t>homicídio triplamente</t>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>mérito deste</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>relativização</t>
   </si>
   <si>
     <t>fundamentos insubsistência</t>
   </si>
   <si>
-    <t>turma partir</t>
-  </si>
-  <si>
-    <t>informações solicitadas</t>
-  </si>
-  <si>
-    <t>legitimidade</t>
-  </si>
-  <si>
-    <t>lícita</t>
-  </si>
-  <si>
-    <t>manifesta ilegalidade</t>
-  </si>
-  <si>
-    <t>ordem parcialmente</t>
-  </si>
-  <si>
-    <t>opina admissão</t>
-  </si>
-  <si>
-    <t>ministerial</t>
-  </si>
-  <si>
-    <t>produzidas</t>
-  </si>
-  <si>
-    <t>república cláudia</t>
-  </si>
-  <si>
-    <t>federal opinou</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>assuntos INVESTIGAÇÃO PENAL</t>
+    <t>http</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>Relator_OCTAVIO GALLOTTI</t>
+  </si>
+  <si>
+    <t>autoridade judiciária</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>deduzida</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DO MP</t>
+  </si>
+  <si>
+    <t>superação súmula</t>
+  </si>
+  <si>
+    <t>requer medida</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
+  </si>
+  <si>
+    <t>Relator_ILMAR GALVÃO</t>
   </si>
   <si>
     <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
   </si>
   <si>
+    <t>assuntos INDEFERIMENTO</t>
+  </si>
+  <si>
+    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>assuntos FURTO (ART. 155)</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>assuntos DESCLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
     <t>assuntos LICITAÇÕES</t>
   </si>
   <si>
-    <t>subsidiariamente</t>
-  </si>
-  <si>
-    <t>sob</t>
-  </si>
-  <si>
-    <t>benefício</t>
-  </si>
-  <si>
-    <t>cautelar prisão</t>
-  </si>
-  <si>
-    <t>sistema</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
-    <t>contra paciente</t>
-  </si>
-  <si>
-    <t>reexame</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>decisões</t>
-  </si>
-  <si>
-    <t>decretou</t>
-  </si>
-  <si>
-    <t>esclarece</t>
-  </si>
-  <si>
-    <t>resumiu</t>
-  </si>
-  <si>
-    <t>tratamento</t>
-  </si>
-  <si>
-    <t>relatório</t>
-  </si>
-  <si>
-    <t>princípio culpabilidade</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>suspeição</t>
-  </si>
-  <si>
-    <t>stj</t>
-  </si>
-  <si>
-    <t>pertence</t>
-  </si>
-  <si>
-    <t>preventiva fundamentação</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>réus</t>
-  </si>
-  <si>
-    <t>presente writ</t>
-  </si>
-  <si>
-    <t>poderia</t>
-  </si>
-  <si>
-    <t>paulo denegou</t>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>empresas</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
   </si>
   <si>
     <t>assuntos DE TRÁFICO ILÍCITO E USO INDEVIDO DE DROGAS</t>
-  </si>
-  <si>
-    <t>mero</t>
-  </si>
-  <si>
-    <t>mencionada</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
-  </si>
-  <si>
-    <t>antonio</t>
-  </si>
-  <si>
-    <t>art iv</t>
-  </si>
-  <si>
-    <t>art ix</t>
-  </si>
-  <si>
-    <t>assim ementado</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>aurélio assessora</t>
-  </si>
-  <si>
-    <t>cautelares</t>
-  </si>
-  <si>
-    <t>constituição</t>
-  </si>
-  <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>deferiu medida</t>
-  </si>
-  <si>
-    <t>defesa</t>
-  </si>
-  <si>
-    <t>delito tráfico</t>
-  </si>
-  <si>
-    <t>embargos declaratórios</t>
-  </si>
-  <si>
-    <t>encontrava</t>
-  </si>
-  <si>
-    <t>esgotamento</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>fatos delituosos</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>impetração formalizada</t>
-  </si>
-  <si>
-    <t>importante</t>
-  </si>
-  <si>
-    <t>indispensável custódia</t>
-  </si>
-  <si>
-    <t>informações autoridade</t>
-  </si>
-  <si>
-    <t>assuntos FIANÇA</t>
-  </si>
-  <si>
-    <t>instrução processual</t>
-  </si>
-  <si>
-    <t>iv combinado</t>
-  </si>
-  <si>
-    <t>informações determinei</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:2">

--- a/modeling/results/feature_imp_attr_text.xlsx
+++ b/modeling/results/feature_imp_attr_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>aumento</t>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>xliii constituição</t>
+  </si>
+  <si>
+    <t>relatório http</t>
   </si>
   <si>
     <t>deferi</t>
   </si>
   <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>inafiançabilidade</t>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
   </si>
   <si>
     <t>medidas cautelares</t>
   </si>
   <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
     <t>liminar hc</t>
   </si>
   <si>
-    <t>xliii constituição</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
   </si>
   <si>
     <t>concessão</t>
   </si>
   <si>
-    <t>deferida</t>
+    <t>cento</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>submetida</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>mérito deste</t>
+  </si>
+  <si>
+    <t>substituição pena</t>
+  </si>
+  <si>
+    <t>superação súmula</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
   </si>
   <si>
     <t>liminar assessor</t>
   </si>
   <si>
-    <t>deferido</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>inconstitucional</t>
+    <t>liberdade restritiva</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>restritiva</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>requer medida</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>pública estado</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>assuntos FIANÇA</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>inadmissão</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>alcance</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>Relator_OCTAVIO GALLOTTI</t>
+  </si>
+  <si>
+    <t>Relator_ILMAR GALVÃO</t>
+  </si>
+  <si>
+    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
+  </si>
+  <si>
+    <t>assuntos FURTO (ART. 155)</t>
+  </si>
+  <si>
+    <t>assuntos LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>assuntos DESCLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos INDEFERIMENTO</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DO MP</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
   </si>
   <si>
     <t>ficou</t>
   </si>
   <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>submetida</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>xliii</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>assuntos FIANÇA</t>
-  </si>
-  <si>
     <t>implicou deferimento</t>
   </si>
   <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>vedação liberdade</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>liberdade restritiva</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>mérito deste</t>
+    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
   </si>
   <si>
     <t>formalizado ato</t>
   </si>
   <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>relativização</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
+    <t>flagrante preventiva</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>estariam ausentes</t>
+  </si>
+  <si>
+    <t>deduzida</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
   </si>
   <si>
     <t>deferi pedido</t>
   </si>
   <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>Relator_OCTAVIO GALLOTTI</t>
-  </si>
-  <si>
-    <t>autoridade judiciária</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>deduzida</t>
-  </si>
-  <si>
-    <t>arquivado definitivo</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>assuntos COMPETÊNCIA DO MP</t>
-  </si>
-  <si>
-    <t>superação súmula</t>
-  </si>
-  <si>
-    <t>requer medida</t>
-  </si>
-  <si>
-    <t>afastamento enunciado</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
-  </si>
-  <si>
-    <t>Relator_ILMAR GALVÃO</t>
-  </si>
-  <si>
-    <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
-  </si>
-  <si>
-    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>assuntos FURTO (ART. 155)</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>assuntos DESCLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>assuntos LICITAÇÕES</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
     <t>impetração eis</t>
-  </si>
-  <si>
-    <t>empresas</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>cautelar pois</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
-    <t>assuntos DE TRÁFICO ILÍCITO E USO INDEVIDO DE DROGAS</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.11</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">

--- a/modeling/results/feature_imp_attr_text.xlsx
+++ b/modeling/results/feature_imp_attr_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>deferi</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DO MP</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>autoridade judiciária</t>
+  </si>
+  <si>
+    <t>xliii constituição</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>Relator_OCTAVIO GALLOTTI</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>resumiu apreciou</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>apreciou presente</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>medidas cautelares</t>
+  </si>
+  <si>
+    <t>deduzida</t>
+  </si>
+  <si>
+    <t>cento</t>
+  </si>
+  <si>
+    <t>indevidas</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>liberdade restritiva</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>submetida</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
     <t>sob código</t>
   </si>
   <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>xliii constituição</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>deferi</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>deferido</t>
-  </si>
-  <si>
-    <t>deferimento</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>medidas cautelares</t>
+    <t>flagrante preventiva</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>estado paulo</t>
+  </si>
+  <si>
+    <t>definitivo após</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>assuntos LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
   </si>
   <si>
     <t>liminar suspender</t>
   </si>
   <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>inconstitucional</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>cento</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>vedação liberdade</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>submetida</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>mérito deste</t>
-  </si>
-  <si>
-    <t>substituição pena</t>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>requer medida</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>fiança</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>assuntos FIANÇA</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
+  </si>
+  <si>
+    <t>assuntos INDEFERIMENTO</t>
+  </si>
+  <si>
+    <t>assuntos DESCLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
   </si>
   <si>
     <t>superação súmula</t>
   </si>
   <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
+    <t>assuntos FURTO (ART. 155)</t>
+  </si>
+  <si>
+    <t>alcance</t>
+  </si>
+  <si>
+    <t>Relator_ILMAR GALVÃO</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
   </si>
   <si>
     <t>liminar espécie</t>
   </si>
   <si>
-    <t>liminar assessor</t>
-  </si>
-  <si>
-    <t>liberdade restritiva</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>restritiva</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>requer medida</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
     <t>preventiva fundamentos</t>
   </si>
   <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>pública estado</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>assuntos FIANÇA</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>inadmissão</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>alcance</t>
-  </si>
-  <si>
-    <t>afastamento enunciado</t>
-  </si>
-  <si>
-    <t>Relator_OCTAVIO GALLOTTI</t>
-  </si>
-  <si>
-    <t>Relator_ILMAR GALVÃO</t>
-  </si>
-  <si>
-    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
-  </si>
-  <si>
-    <t>assuntos FURTO (ART. 155)</t>
-  </si>
-  <si>
-    <t>assuntos LICITAÇÕES</t>
-  </si>
-  <si>
-    <t>assuntos DESCLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
-  </si>
-  <si>
-    <t>assuntos COMPETÊNCIA DO MP</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
     <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>formalizado ato</t>
-  </si>
-  <si>
-    <t>flagrante preventiva</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>estariam ausentes</t>
-  </si>
-  <si>
-    <t>deduzida</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0625</v>
+        <v>0.03943627219794957</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0625</v>
+        <v>0.03882963684287932</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.03125</v>
+        <v>0.03662977004559582</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03125</v>
+        <v>0.03150191172787244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03125</v>
+        <v>0.03079242482761155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03125</v>
+        <v>0.02888210675098866</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03125</v>
+        <v>0.02789687800920582</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03125</v>
+        <v>0.02732471745915093</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.03125</v>
+        <v>0.02719979969737903</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.03125</v>
+        <v>0.02686392226343103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.03125</v>
+        <v>0.02562121723432194</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03125</v>
+        <v>0.02560574144406425</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.03125</v>
+        <v>0.02378913617963958</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.03125</v>
+        <v>0.02377441625243438</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.03125</v>
+        <v>0.02376524928008462</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.03125</v>
+        <v>0.02034016661823855</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.03125</v>
+        <v>0.01953334947005041</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.03125</v>
+        <v>0.01931619868240219</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.03125</v>
+        <v>0.01921377237481184</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.03125</v>
+        <v>0.01890359086036458</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.03125</v>
+        <v>0.01847873440707344</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.03125</v>
+        <v>0.01752647336230672</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.03125</v>
+        <v>0.01685491483248903</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.03125</v>
+        <v>0.01671966393214012</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.03125</v>
+        <v>0.01635280171439729</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.03125</v>
+        <v>0.01607357300009383</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.03125</v>
+        <v>0.01577045041769757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.03125</v>
+        <v>0.01568287597373564</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.03125</v>
+        <v>0.01563834586482164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.03125</v>
+        <v>0.0150562090334635</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.01451736262860866</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.01365428972386297</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.01333873659585741</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.01328201725087755</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.01327306439680962</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.01319918873628093</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.01312190427081805</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.0126310848858902</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.01262710065610201</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.01254165421097431</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.0125099535383994</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.01092318651250999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.01089555967036921</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.01061919418467707</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.01047569335347573</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.0102329517617135</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.009450465226043064</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.008078938485714024</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.008005554513555228</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.007936799018765513</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.007427811729627588</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.00533576765185011</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.005124710627229247</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.004152456407958737</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.004053805159999832</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.003923681810480437</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.003504714603073834</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.003311318015153255</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.003185851563499837</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.002761984981374526</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.002732966450261067</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.002414572782649035</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.002382456803106262</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.002321808534278295</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.002304376321535941</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.001958321403605697</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.001944308401443623</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.001564512521324016</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.001137301357017755</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.001114712912154443</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.0008352831567786553</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.0007735003558620728</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.0007281105438923458</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.0007131398757218936</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.000666925408866472</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.000560454167563593</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.0005335322502163179</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0004712080694227272</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.0003998235032391884</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.0003788202562451232</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.0003191344821202926</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.0002736075144466114</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>8.738806484581303E-16</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>5.136380628675219E-16</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>4.793458267680357E-17</v>
       </c>
     </row>
     <row r="87" spans="1:2">

--- a/modeling/results/feature_imp_attr_text.xlsx
+++ b/modeling/results/feature_imp_attr_text.xlsx
@@ -25,301 +25,301 @@
     <t>concessão</t>
   </si>
   <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
     <t>deferi</t>
   </si>
   <si>
+    <t>medidas cautelares</t>
+  </si>
+  <si>
+    <t>estado paulo</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
     <t>liminar hc</t>
   </si>
   <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
     <t>república concessão</t>
   </si>
   <si>
-    <t>ordem prisão</t>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>cento</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>guilherme</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>autoridade judiciária</t>
+  </si>
+  <si>
+    <t>preventiva irresignada</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>mérito deste</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>relativização</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>implemento liminar</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>ser primário</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>fiança</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>superação súmula</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
   </si>
   <si>
     <t>assuntos COMPETÊNCIA DO MP</t>
   </si>
   <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>autoridade judiciária</t>
-  </si>
-  <si>
-    <t>xliii constituição</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>Relator_ILMAR GALVÃO</t>
+  </si>
+  <si>
+    <t>liminarmente pedido</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
   </si>
   <si>
     <t>Relator_OCTAVIO GALLOTTI</t>
   </si>
   <si>
-    <t>deferido</t>
-  </si>
-  <si>
-    <t>resumiu apreciou</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>apreciou presente</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>deferimento</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>medidas cautelares</t>
-  </si>
-  <si>
-    <t>deduzida</t>
-  </si>
-  <si>
-    <t>cento</t>
-  </si>
-  <si>
-    <t>indevidas</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>liberdade restritiva</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>vedação liberdade</t>
-  </si>
-  <si>
-    <t>submetida</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>flagrante preventiva</t>
-  </si>
-  <si>
-    <t>inconstitucional</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>afastamento enunciado</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>liminar assessor</t>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>definitivo após</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
   </si>
   <si>
     <t>decretada desfavor</t>
   </si>
   <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>estado paulo</t>
-  </si>
-  <si>
-    <t>definitivo após</t>
-  </si>
-  <si>
-    <t>arquivado definitivo</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>efêmero</t>
+    <t>deserção</t>
   </si>
   <si>
     <t>assuntos LICITAÇÕES</t>
   </si>
   <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>requer medida</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>fiança</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>informado</t>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
+  </si>
+  <si>
+    <t>assuntos DE TRÁFICO ILÍCITO E USO INDEVIDO DE DROGAS</t>
+  </si>
+  <si>
+    <t>assuntos FURTO (ART. 155)</t>
+  </si>
+  <si>
+    <t>assuntos INDEFERIMENTO</t>
   </si>
   <si>
     <t>assuntos FIANÇA</t>
   </si>
   <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
+    <t>assuntos DESCLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
   </si>
   <si>
     <t>assuntos TRANSFERÊNCIA DE PRESO</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
-  </si>
-  <si>
-    <t>assuntos DESCLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>formalizado ato</t>
-  </si>
-  <si>
-    <t>superação súmula</t>
-  </si>
-  <si>
-    <t>assuntos FURTO (ART. 155)</t>
-  </si>
-  <si>
-    <t>alcance</t>
-  </si>
-  <si>
-    <t>Relator_ILMAR GALVÃO</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.03943627219794957</v>
+        <v>0.09027612605615945</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.03882963684287932</v>
+        <v>0.05515804460977278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.03662977004559582</v>
+        <v>0.05381594190965006</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03150191172787244</v>
+        <v>0.05055222631931239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03079242482761155</v>
+        <v>0.03750798064431912</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.02888210675098866</v>
+        <v>0.03222345755565506</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02789687800920582</v>
+        <v>0.03037647503535701</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02732471745915093</v>
+        <v>0.02329719195749065</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02719979969737903</v>
+        <v>0.01930978358921359</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02686392226343103</v>
+        <v>0.01768689263927046</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02562121723432194</v>
+        <v>0.01683363179240456</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02560574144406425</v>
+        <v>0.01669622045416952</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02378913617963958</v>
+        <v>0.01656830605885813</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02377441625243438</v>
+        <v>0.01639267195013434</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02376524928008462</v>
+        <v>0.01503079586244625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02034016661823855</v>
+        <v>0.01496699855468182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01953334947005041</v>
+        <v>0.01417997491482963</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01931619868240219</v>
+        <v>0.01356784455993692</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01921377237481184</v>
+        <v>0.01332263703136802</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01890359086036458</v>
+        <v>0.01300985352077402</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01847873440707344</v>
+        <v>0.01134212143493878</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01752647336230672</v>
+        <v>0.01127102434426474</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01685491483248903</v>
+        <v>0.01103523888220534</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01671966393214012</v>
+        <v>0.01102607165225764</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01635280171439729</v>
+        <v>0.01094309043150588</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01607357300009383</v>
+        <v>0.010428767970417</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01577045041769757</v>
+        <v>0.01016677177654903</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01568287597373564</v>
+        <v>0.01016545465756876</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01563834586482164</v>
+        <v>0.01012310111338414</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.0150562090334635</v>
+        <v>0.009516640693617745</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01451736262860866</v>
+        <v>0.009474308412981676</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01365428972386297</v>
+        <v>0.00904610296153192</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01333873659585741</v>
+        <v>0.00898854096568877</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01328201725087755</v>
+        <v>0.008832941036642623</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01327306439680962</v>
+        <v>0.00882855084528442</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01319918873628093</v>
+        <v>0.008613886546139359</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01312190427081805</v>
+        <v>0.008530761463494211</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.0126310848858902</v>
+        <v>0.008277562366534218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.01262710065610201</v>
+        <v>0.008252805026006423</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01254165421097431</v>
+        <v>0.008242416275190513</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.0125099535383994</v>
+        <v>0.008131261312584487</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.01092318651250999</v>
+        <v>0.008099554182481259</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01089555967036921</v>
+        <v>0.007701004727475267</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.01061919418467707</v>
+        <v>0.007622696559639707</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.01047569335347573</v>
+        <v>0.007551085967900184</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.0102329517617135</v>
+        <v>0.007501135713900847</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.009450465226043064</v>
+        <v>0.007483783992749482</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.008078938485714024</v>
+        <v>0.006675007423067586</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.008005554513555228</v>
+        <v>0.006621883078066144</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.007936799018765513</v>
+        <v>0.006518820361992171</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.007427811729627588</v>
+        <v>0.006456439570057035</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.00533576765185011</v>
+        <v>0.006411856500936031</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.005124710627229247</v>
+        <v>0.006320451028919677</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.004152456407958737</v>
+        <v>0.006203037707332256</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.004053805159999832</v>
+        <v>0.006195977233919117</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.003923681810480437</v>
+        <v>0.005896889483709867</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.003504714603073834</v>
+        <v>0.005818115468232451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.003311318015153255</v>
+        <v>0.005808716641417371</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.003185851563499837</v>
+        <v>0.005748729880872228</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.002761984981374526</v>
+        <v>0.005625184346188647</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.002732966450261067</v>
+        <v>0.005227475484986604</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.002414572782649035</v>
+        <v>0.005216578447777712</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.002382456803106262</v>
+        <v>0.005056925433950604</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.002321808534278295</v>
+        <v>0.004755921211105912</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.002304376321535941</v>
+        <v>0.004714650917697197</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.001958321403605697</v>
+        <v>0.004679498132079732</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.001944308401443623</v>
+        <v>0.004553459113486269</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.001564512521324016</v>
+        <v>0.00445249253071643</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.001137301357017755</v>
+        <v>0.004316033065467494</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.001114712912154443</v>
+        <v>0.003983770410558364</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.0008352831567786553</v>
+        <v>0.003917069888501033</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.0007735003558620728</v>
+        <v>0.00389283332107361</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.0007281105438923458</v>
+        <v>0.00382827950831808</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.0007131398757218936</v>
+        <v>0.003790851170582869</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.000666925408866472</v>
+        <v>0.003750496769110435</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.000560454167563593</v>
+        <v>0.00368442809080141</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.0005335322502163179</v>
+        <v>0.003133613164827681</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.0004712080694227272</v>
+        <v>0.003026891038564195</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0003998235032391884</v>
+        <v>0.002950969044751699</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.0003788202562451232</v>
+        <v>0.002853056767843544</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.0003191344821202926</v>
+        <v>0.002558784580319541</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.0002736075144466114</v>
+        <v>0.002555255983411265</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>8.738806484581303E-16</v>
+        <v>0.002450662994021877</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>5.136380628675219E-16</v>
+        <v>0.002426241809776876</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>4.793458267680357E-17</v>
+        <v>0.002283468459239535</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.002206860388074831</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.002132787355008601</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.001982516136365316</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.001549522354512203</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.001481733541170481</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.00136961313904475</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.001194388223045574</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.001179623116918475</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.001082478720790332</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.0009064607148201713</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008798744254932485</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.00061610365296879</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.000476283832863143</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0004165230032597003</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.0001946790032456849</v>
       </c>
     </row>
   </sheetData>
